--- a/admin/Week 3/Paik_Tyler_Timesheet3.xlsx
+++ b/admin/Week 3/Paik_Tyler_Timesheet3.xlsx
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -220,6 +220,9 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -555,11 +558,13 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="16">
+        <v>1.0</v>
+      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="11"/>
     </row>
@@ -573,7 +578,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="16">
+      <c r="H8" s="17">
         <v>1.0</v>
       </c>
       <c r="I8" s="15">
@@ -625,7 +630,7 @@
       </c>
       <c r="G10" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" si="2"/>
@@ -633,42 +638,42 @@
       </c>
       <c r="I10" s="15">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
     </row>
